--- a/plantillas/Ingresos y Egresos .xlsx
+++ b/plantillas/Ingresos y Egresos .xlsx
@@ -1,119 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc Trans\Desktop\Cuentas\Cuenta-Pista-Sep-2024\21101\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB14CA8D-26F7-41C1-9C1D-AB525EBEB49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="RESUMEN" sheetId="1" r:id="rId1"/>
+    <sheet name="RESUMEN" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">RESUMEN!$A$1:$B$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">RESUMEN!$A$1:$B$49</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">Ejército Mexicano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagaduría C.M.G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cnto. Nal. Adto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resumen de ingresos y egresos correspondientes al mes de {{MES}} del 2025, por concepto de los recursos asignados a la Partida Presupuestal {{PARTIDA}} "{{DESCRIPCION}}.".</t>
+  </si>
+  <si>
+    <t>Ingresos:</t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>Importe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursos asignados por la Pagaduria adscrita al Criadero Militar de Ganado.</t>
+  </si>
+  <si>
+    <t>{{MONTO}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportación de la Comandancia.</t>
+  </si>
+  <si>
+    <t>{{APORTACION}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suman los ingresos</t>
+  </si>
+  <si>
+    <t>{{SUMA_INGRESOS}}</t>
+  </si>
   <si>
     <t>EGRESOS.</t>
   </si>
   <si>
+    <t>Concepto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importe total de los gastos.</t>
+  </si>
+  <si>
+    <t>{{EGRESOS}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMAN LOS EGRESOS.</t>
+  </si>
+  <si>
     <t>SALDO.</t>
   </si>
   <si>
-    <t>SUMAN LOS EGRESOS.</t>
-  </si>
-  <si>
-    <t>Ejército Mexicano.</t>
-  </si>
-  <si>
-    <t>Pagaduría C.M.G.</t>
-  </si>
-  <si>
-    <t>Cnto. Nal. Adto.</t>
-  </si>
-  <si>
-    <t>Ingresos:</t>
-  </si>
-  <si>
-    <t>Concepto</t>
-  </si>
-  <si>
-    <t>Recursos asignados por la Pagaduria adscrita al Criadero Militar de Ganado.</t>
-  </si>
-  <si>
-    <t>Aportación de la Comandancia.</t>
-  </si>
-  <si>
-    <t>Suman los ingresos</t>
-  </si>
-  <si>
-    <t>Concepto.</t>
-  </si>
-  <si>
-    <t>Importe total de los gastos.</t>
-  </si>
-  <si>
-    <t>Importe.</t>
-  </si>
-  <si>
-    <t>Resumen de ingresos y egresos correspondientes al mes de septiembre del 2024, por concepto de los recursos asignados a la Partida Presupuestal 21101 "MATERIAL Y ÚTILES DE OFICINA.".</t>
-  </si>
-  <si>
-    <t>Campo Militar No. 42-A, Santa Gertrudis, Chih., a 24 de octubre del 2024.</t>
+    <t>{{SALDO}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo Militar No. 42-A, Santa Gertrudis, Chih., a {{FECHA_DOCUMENTO}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V/o.      B/o.</t>
+  </si>
+  <si>
+    <t>{{GRADO_VO_BO}}</t>
+  </si>
+  <si>
+    <t>{NOMBRE_VO_BO}}</t>
+  </si>
+  <si>
+    <t>({{MATRICULA_VO_BO}}).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <name val="Geomanist"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <name val="Geomanist"/>
-      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Geomanist"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,74 +136,76 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color theme="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -199,59 +213,117 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="164" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="22">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="3" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="4" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="5" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="7" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="8" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -260,7 +332,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -273,37 +345,31 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>187324</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>124777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3749491</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>188594</xdr:rowOff>
+      <xdr:colOff>4381499</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>141922</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
+    <xdr:sp fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31DD8E9E-A7CB-4B1D-80FF-A887AEE0A0B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="7664449"/>
-          <a:ext cx="3749491" cy="1258570"/>
+        <a:xfrm flipH="0" flipV="0">
+          <a:off x="0" y="6458902"/>
+          <a:ext cx="4381499" cy="1293494"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -321,7 +387,7 @@
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="20160" tIns="20160" rIns="20160" bIns="20160" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
+          <a:pPr algn="ctr">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -329,123 +395,142 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-              <a:cs typeface="Arial"/>
+              <a:latin typeface="Geomanist"/>
+              <a:ea typeface="Geomanist"/>
+              <a:cs typeface="Geomanist"/>
             </a:rPr>
             <a:t>Efectuó el pago:</a:t>
           </a:r>
+          <a:endParaRPr sz="1100">
+            <a:latin typeface="Geomanist"/>
+            <a:cs typeface="Geomanist"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0"/>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="0" i="0" baseline="0">
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0">
+              <a:latin typeface="Geomanist"/>
+              <a:ea typeface="Geomanist"/>
+              <a:cs typeface="Geomanist"/>
             </a:rPr>
             <a:t>El Cap. 1/o. I.C.I., Comis. Habilitado. </a:t>
           </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100">
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-            <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+          <a:endParaRPr sz="1100">
+            <a:latin typeface="Geomanist"/>
+            <a:cs typeface="Geomanist"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0" fontAlgn="base"/>
-          <a:endParaRPr lang="es-MX" sz="1100" b="0" i="0" baseline="0">
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr sz="1100" b="0" i="0">
+            <a:latin typeface="Geomanist"/>
+            <a:cs typeface="Geomanist"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0" fontAlgn="base"/>
-          <a:endParaRPr lang="es-MX" sz="1100" b="0" i="0" baseline="0">
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr sz="1100" b="0" i="0">
+            <a:latin typeface="Geomanist"/>
+            <a:cs typeface="Geomanist"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0"/>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0">
+              <a:latin typeface="Geomanist"/>
+              <a:ea typeface="Geomanist"/>
+              <a:cs typeface="Geomanist"/>
             </a:rPr>
-            <a:t>José Madain Estrada Vazquez.</a:t>
+            <a:t>José Madain Estrada </a:t>
           </a:r>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0">
+              <a:latin typeface="Geomanist"/>
+              <a:ea typeface="Geomanist"/>
+              <a:cs typeface="Geomanist"/>
+            </a:rPr>
+            <a:t>Vazquez</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0">
+              <a:latin typeface="Geomanist"/>
+              <a:ea typeface="Geomanist"/>
+              <a:cs typeface="Geomanist"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100" b="0" i="0">
+            <a:latin typeface="Geomanist"/>
+            <a:cs typeface="Geomanist"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0"/>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0">
+              <a:latin typeface="Geomanist"/>
+              <a:ea typeface="Geomanist"/>
+              <a:cs typeface="Geomanist"/>
             </a:rPr>
             <a:t>(C-1406477).</a:t>
           </a:r>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:endParaRPr sz="1100">
+            <a:latin typeface="Geomanist"/>
+            <a:cs typeface="Geomanist"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
+          <a:pPr algn="ctr">
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:endParaRPr lang="es-ES" sz="1100" b="0" i="0" strike="noStrike">
+          <a:endParaRPr sz="1100" b="0" i="0" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-            <a:cs typeface="Arial"/>
+            <a:latin typeface="Geomanist"/>
+            <a:cs typeface="Geomanist"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4403090</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>4381499</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>124777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1543036</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>198119</xdr:rowOff>
+      <xdr:colOff>1838324</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
+    <xdr:sp fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Text Box 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E49AE91-CA94-4B3C-ADA1-E3464920D714}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Text Box 2"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4403090" y="7648575"/>
-          <a:ext cx="3902696" cy="1283969"/>
+        <a:xfrm flipH="0" flipV="0">
+          <a:off x="4381499" y="6458902"/>
+          <a:ext cx="4219574" cy="1170622"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -463,222 +548,108 @@
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="20160" tIns="20160" rIns="20160" bIns="20160" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
+          <a:pPr algn="ctr">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-              <a:cs typeface="Arial"/>
+              <a:latin typeface="Geomanist"/>
+              <a:ea typeface="Geomanist"/>
+              <a:cs typeface="Geomanist"/>
             </a:rPr>
             <a:t>  Elaboró:</a:t>
           </a:r>
+          <a:endParaRPr sz="1100">
+            <a:latin typeface="Geomanist"/>
+            <a:cs typeface="Geomanist"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
+          <a:pPr algn="ctr">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-              <a:cs typeface="Arial"/>
+              <a:latin typeface="Geomanist"/>
+              <a:ea typeface="Geomanist"/>
+              <a:cs typeface="Geomanist"/>
             </a:rPr>
             <a:t>El Sargento 2/o. Transmisiones. </a:t>
           </a:r>
+          <a:endParaRPr sz="1100">
+            <a:latin typeface="Geomanist"/>
+            <a:cs typeface="Geomanist"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
+          <a:pPr algn="ctr">
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:endParaRPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-            <a:cs typeface="Arial"/>
+            <a:latin typeface="Geomanist"/>
+            <a:cs typeface="Geomanist"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
+          <a:pPr algn="ctr">
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:endParaRPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-            <a:cs typeface="Arial"/>
+            <a:latin typeface="Geomanist"/>
+            <a:cs typeface="Geomanist"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
+          <a:pPr algn="ctr">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-              <a:cs typeface="Arial"/>
+              <a:latin typeface="Geomanist"/>
+              <a:ea typeface="Geomanist"/>
+              <a:cs typeface="Geomanist"/>
             </a:rPr>
             <a:t>Edgar David González Hernández.</a:t>
           </a:r>
+          <a:endParaRPr sz="1100">
+            <a:latin typeface="Geomanist"/>
+            <a:cs typeface="Geomanist"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
+          <a:pPr algn="ctr">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-              <a:cs typeface="Arial"/>
+              <a:latin typeface="Geomanist"/>
+              <a:ea typeface="Geomanist"/>
+              <a:cs typeface="Geomanist"/>
             </a:rPr>
             <a:t>(C-8777943).</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>74295</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1647825</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Text Box 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E6C5D4-95D2-459A-B1D4-6E9E3246E13C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="9018270"/>
-          <a:ext cx="8410575" cy="1476375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="20160" tIns="20160" rIns="20160" bIns="20160" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>V/o.                            B/o.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>El Gral. Bgda. D.E.M., Comandante. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES" sz="1100" b="0" i="0" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-            <a:cs typeface="Arial"/>
+          <a:endParaRPr sz="1100">
+            <a:latin typeface="Geomanist"/>
+            <a:cs typeface="Geomanist"/>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES" sz="1100" b="0" i="0" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Manuel Alejandro Velasco Villanueva.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>(B-4995798)</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -687,8 +658,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -733,13 +704,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -767,13 +738,13 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -965,6 +936,216 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
       <a:spPr bwMode="auto">
@@ -992,9 +1173,8 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:effectLst/>
       </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:bodyPr/>
       <a:lstStyle/>
     </a:spDef>
     <a:lnDef>
@@ -1023,250 +1203,280 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:effectLst/>
       </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:bodyPr/>
       <a:lstStyle/>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScale="100" workbookViewId="0">
+      <selection activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="101.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="3" customWidth="1"/>
-    <col min="3" max="4" width="33.42578125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="3"/>
+    <col customWidth="1" min="1" max="1" style="1" width="101.42578125"/>
+    <col customWidth="1" min="2" max="2" style="1" width="28.7109375"/>
+    <col customWidth="1" min="3" max="4" style="1" width="33.42578125"/>
+    <col min="5" max="16384" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1"/>
+    <row r="1" ht="15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="15">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="7" ht="29.25" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" ht="17.25" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" ht="24.75" customHeight="1">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" ht="28.5" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B10" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" ht="36.75" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" ht="36.75" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" customHeight="1">
+      <c r="A13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="16" ht="24.75" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" ht="6.75" customHeight="1"/>
+    <row r="18" ht="28.5" customHeight="1">
+      <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="B18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="13">
-        <f>B20-B12</f>
-        <v>15.299999999999272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="13">
-        <f>SUM(B12:B13)</f>
-        <v>8515.2999999999993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="13">
-        <v>8515.2999999999993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="13">
-        <f>B20</f>
-        <v>8515.2999999999993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="15">
-        <f>SUM(B21-B14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    </row>
+    <row r="19" ht="36.75" customHeight="1">
+      <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="16" t="str">
+        <f>B19</f>
+        <v>{{EGRESOS}}</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" ht="15">
+      <c r="A22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="17"/>
+    </row>
+    <row r="24" ht="15">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" ht="12.75">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" ht="15">
+      <c r="A35" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="18"/>
+    </row>
+    <row r="36" ht="15">
+      <c r="A36" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="20"/>
+    </row>
+    <row r="37" ht="12.75">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="39" ht="15">
+      <c r="A39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="18"/>
+    </row>
+    <row r="40" ht="15">
+      <c r="A40" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="18"/>
+    </row>
+    <row r="41" ht="12.75">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="16"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="21"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57">
+      <c r="A57" s="2"/>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64">
       <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="B64" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A25:B25"/>
+  <mergeCells count="9">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
   </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup scale="65" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <printOptions headings="0" gridLines="0" horizontalCentered="1"/>
+  <pageMargins left="0.78740157480314954" right="0.59055118110236238" top="0.59055118110236238" bottom="0.59055118110236238" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="65" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="4294967293" verticalDpi="600" copies="1"/>
+  <headerFooter/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="2" max="1048575" man="1"/>
+    <brk id="2" man="1" max="1048575"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>